--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/59.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/59.xlsx
@@ -479,13 +479,13 @@
         <v>-12.74813464563805</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.47684542902274</v>
+        <v>-17.40328543170314</v>
       </c>
       <c r="F2" t="n">
-        <v>2.718062788984898</v>
+        <v>2.655136381600835</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.040873858174731</v>
+        <v>-9.137348630679563</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.13667112005613</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.9901178149458</v>
+        <v>-17.8949239622401</v>
       </c>
       <c r="F3" t="n">
-        <v>2.582764412949893</v>
+        <v>2.517344612063704</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.955902918827748</v>
+        <v>-9.065274891447503</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.46265807984108</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.43663570110801</v>
+        <v>-18.34177430086926</v>
       </c>
       <c r="F4" t="n">
-        <v>2.819421679349778</v>
+        <v>2.72874037998224</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.921630980690676</v>
+        <v>-9.023835669243532</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.77088566733833</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.09609428135871</v>
+        <v>-18.96640359620005</v>
       </c>
       <c r="F5" t="n">
-        <v>3.104680563013665</v>
+        <v>3.06112440083632</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.813828379275201</v>
+        <v>-8.87335203787989</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.06994483364265</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.62987605108848</v>
+        <v>-19.50005825175128</v>
       </c>
       <c r="F6" t="n">
-        <v>3.203198940388868</v>
+        <v>3.171185723424309</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.389775479666465</v>
+        <v>-8.505459160151407</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.379253704978003</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.28057842004052</v>
+        <v>-20.15928704867923</v>
       </c>
       <c r="F7" t="n">
-        <v>3.345053474632405</v>
+        <v>3.30845436922668</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.214426359377693</v>
+        <v>-8.307439715020751</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.708907648123313</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.85357980285669</v>
+        <v>-20.74205666721549</v>
       </c>
       <c r="F8" t="n">
-        <v>3.534336264491884</v>
+        <v>3.504747994933315</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.989429374355401</v>
+        <v>-8.104291701686702</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.070428509655757</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.32341825177408</v>
+        <v>-21.20066995636645</v>
       </c>
       <c r="F9" t="n">
-        <v>3.709680495773789</v>
+        <v>3.709431156423576</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.286416985493016</v>
+        <v>-8.378418316714622</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.468710003154557</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.95598729425674</v>
+        <v>-21.85169011076484</v>
       </c>
       <c r="F10" t="n">
-        <v>4.072366581189008</v>
+        <v>4.067145121855142</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.010466770903736</v>
+        <v>-8.058105253814956</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.90640841950337</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.8301612780886</v>
+        <v>-22.73740703980949</v>
       </c>
       <c r="F11" t="n">
-        <v>4.245173417906983</v>
+        <v>4.248424607473481</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.627589087128158</v>
+        <v>-7.698064121114737</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.383002704060682</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.60487819522681</v>
+        <v>-23.53380670240247</v>
       </c>
       <c r="F12" t="n">
-        <v>4.647602240143353</v>
+        <v>4.668629858677955</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.132909594319971</v>
+        <v>-7.207168719621541</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.893709717473066</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.17729778622581</v>
+        <v>-24.10292132475944</v>
       </c>
       <c r="F13" t="n">
-        <v>5.440320480565544</v>
+        <v>5.463328146881246</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.863735543248234</v>
+        <v>-6.929786026020255</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.440760249937573</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.32833622893107</v>
+        <v>-25.24892409039177</v>
       </c>
       <c r="F14" t="n">
-        <v>5.65266471581626</v>
+        <v>5.697404017655399</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.300277501836287</v>
+        <v>-6.315946768844749</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.022149838490634</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.77448255057139</v>
+        <v>-25.70381195631013</v>
       </c>
       <c r="F15" t="n">
-        <v>5.956384489409618</v>
+        <v>6.004301645712252</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.817903639312123</v>
+        <v>-5.853578722420002</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.637071664701253</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.82634259997441</v>
+        <v>-26.72631840848419</v>
       </c>
       <c r="F16" t="n">
-        <v>6.258383332585821</v>
+        <v>6.309395230235212</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.506170783463892</v>
+        <v>-5.544974830966596</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.285968089834388</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.74886641721662</v>
+        <v>-27.67790981605365</v>
       </c>
       <c r="F17" t="n">
-        <v>6.587027263186711</v>
+        <v>6.641031233038653</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.087578904525501</v>
+        <v>-5.148828382554211</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.96974986138721</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.31222178948437</v>
+        <v>-28.24624708631878</v>
       </c>
       <c r="F18" t="n">
-        <v>7.011833069852951</v>
+        <v>7.055110558638882</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.922012686977427</v>
+        <v>-4.959242474268984</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.689198564836222</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.29351391377033</v>
+        <v>-29.23063884095837</v>
       </c>
       <c r="F19" t="n">
-        <v>7.140673067816761</v>
+        <v>7.201374977076377</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.692107139060751</v>
+        <v>-4.733424136093049</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.443853555489286</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.81163130549851</v>
+        <v>-29.75248898942944</v>
       </c>
       <c r="F20" t="n">
-        <v>7.335392433312249</v>
+        <v>7.39757571165254</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.582358712912244</v>
+        <v>-4.632084801755636</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.233054716901688</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.62278354631241</v>
+        <v>-30.55119870776704</v>
       </c>
       <c r="F21" t="n">
-        <v>7.672821909252985</v>
+        <v>7.711357061378008</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.50114741984592</v>
+        <v>-4.544571578837859</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.055330196815842</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.81912850659114</v>
+        <v>-30.76484586334779</v>
       </c>
       <c r="F22" t="n">
-        <v>7.65921580314236</v>
+        <v>7.699755448082819</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.643930865394171</v>
+        <v>-4.705635021061505</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.912139270294849</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.32404313527522</v>
+        <v>-31.26238542517312</v>
       </c>
       <c r="F23" t="n">
-        <v>7.727593453183033</v>
+        <v>7.772533204303715</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.38948739201245</v>
+        <v>-4.429640805410422</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.803320686193536</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.40289303802482</v>
+        <v>-31.35099134112565</v>
       </c>
       <c r="F24" t="n">
-        <v>8.064128240867124</v>
+        <v>8.100292224661693</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.580334664069341</v>
+        <v>-4.601318281542141</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.728355655312134</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.53185770566374</v>
+        <v>-31.47340229505947</v>
       </c>
       <c r="F25" t="n">
-        <v>8.022434790306074</v>
+        <v>8.051015924450057</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.440738850998319</v>
+        <v>-4.475441021739681</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.686213028333702</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49487236871553</v>
+        <v>-31.44562295804166</v>
       </c>
       <c r="F26" t="n">
-        <v>7.653676558362146</v>
+        <v>7.695404231971265</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.479088220862399</v>
+        <v>-4.515555323082719</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.675604314385085</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.61835157064976</v>
+        <v>-31.59328074343622</v>
       </c>
       <c r="F27" t="n">
-        <v>7.779949827720825</v>
+        <v>7.790074960942206</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.216685444301341</v>
+        <v>-4.246034152523431</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.694616641606879</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.2804014154777</v>
+        <v>-31.264685702904</v>
       </c>
       <c r="F28" t="n">
-        <v>7.763904107183611</v>
+        <v>7.755328789139042</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.358950655121699</v>
+        <v>-4.42053258561736</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.740351235924994</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.08570893951998</v>
+        <v>-31.07981524174192</v>
       </c>
       <c r="F29" t="n">
-        <v>7.486516524575457</v>
+        <v>7.45684514190015</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.197486314334966</v>
+        <v>-4.231719140417104</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.808857119762131</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.32404313527522</v>
+        <v>-31.31334598825041</v>
       </c>
       <c r="F30" t="n">
-        <v>7.150573306722263</v>
+        <v>7.133628008921536</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.383689029868289</v>
+        <v>-4.400776108868156</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.897116869243691</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.01381120453513</v>
+        <v>-30.98943461629669</v>
       </c>
       <c r="F31" t="n">
-        <v>7.158576610963403</v>
+        <v>7.120422801373999</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.306237383082622</v>
+        <v>-4.322351549715973</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.00271136070524</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.87761814024348</v>
+        <v>-30.88739126497044</v>
       </c>
       <c r="F32" t="n">
-        <v>6.971875216729654</v>
+        <v>6.934112527689604</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.435835177110803</v>
+        <v>-4.454560073411088</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.122990604647832</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.3620943666582</v>
+        <v>-30.38451779665331</v>
       </c>
       <c r="F33" t="n">
-        <v>6.983232379681498</v>
+        <v>6.937417496331638</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.236539701187882</v>
+        <v>-4.247251515233293</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.255013498343706</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.00093120688203</v>
+        <v>-30.03429623424529</v>
       </c>
       <c r="F34" t="n">
-        <v>6.945562581771918</v>
+        <v>6.895772935839257</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.270958309530964</v>
+        <v>-4.285737777289647</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.395598506242322</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.64732156271523</v>
+        <v>-29.66338439477648</v>
       </c>
       <c r="F35" t="n">
-        <v>6.998314965865931</v>
+        <v>6.93779394986039</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.248243983627277</v>
+        <v>-4.295936245614032</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.541015983507795</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.31511354610836</v>
+        <v>-29.31346595079421</v>
       </c>
       <c r="F36" t="n">
-        <v>7.062488070001057</v>
+        <v>6.972549899677289</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.417682294613948</v>
+        <v>-4.476198817804053</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.686983754674859</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.17163830608844</v>
+        <v>-29.19424996284793</v>
       </c>
       <c r="F37" t="n">
-        <v>7.158410384729928</v>
+        <v>7.093112809015412</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.40137256770592</v>
+        <v>-4.414352880937579</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.828983460630117</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.47621130231786</v>
+        <v>-28.48928450667999</v>
       </c>
       <c r="F38" t="n">
-        <v>6.938038400203737</v>
+        <v>6.846281519325477</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.411199471508419</v>
+        <v>-4.436177407591487</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.961309094717655</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.04996812763275</v>
+        <v>-28.02419083892694</v>
       </c>
       <c r="F39" t="n">
-        <v>6.836938627202803</v>
+        <v>6.770995702581853</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.472722733921676</v>
+        <v>-4.479269114116476</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.080143737184688</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.65121339405686</v>
+        <v>-27.64287519284534</v>
       </c>
       <c r="F40" t="n">
-        <v>6.894609352204931</v>
+        <v>6.833809662807977</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.330222850771706</v>
+        <v>-4.341858687114964</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.180940720950908</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.43226655503238</v>
+        <v>-27.40577302682057</v>
       </c>
       <c r="F41" t="n">
-        <v>6.69702502868543</v>
+        <v>6.642292596810318</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.774755800145948</v>
+        <v>-4.77216951551335</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.260076945552449</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.77418667471816</v>
+        <v>-26.75741982566807</v>
       </c>
       <c r="F42" t="n">
-        <v>6.580691110287189</v>
+        <v>6.531512590212892</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.522659050060346</v>
+        <v>-4.528168960799359</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.314399898067337</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.38947561336749</v>
+        <v>-26.38146253111261</v>
       </c>
       <c r="F43" t="n">
-        <v>6.549655694696013</v>
+        <v>6.503938591483491</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.569001946151833</v>
+        <v>-4.567403240906351</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.342408820422602</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.76138979018179</v>
+        <v>-25.72851121900179</v>
       </c>
       <c r="F44" t="n">
-        <v>6.666248730458201</v>
+        <v>6.619084481213072</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.689188401961203</v>
+        <v>-4.68787814812087</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.344290734558211</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.13277595425447</v>
+        <v>-25.13095235469311</v>
       </c>
       <c r="F45" t="n">
-        <v>6.726134175571042</v>
+        <v>6.687227458924133</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.778813675845488</v>
+        <v>-4.792361113873709</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.321554826574618</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.76275635853888</v>
+        <v>-24.73249340603267</v>
       </c>
       <c r="F46" t="n">
-        <v>6.549821920929488</v>
+        <v>6.51501708104392</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.72957159868192</v>
+        <v>-4.749552969747001</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.277402658569507</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.60416675378989</v>
+        <v>-24.59363583299855</v>
       </c>
       <c r="F47" t="n">
-        <v>6.711041811372875</v>
+        <v>6.688537712764466</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.725802174387529</v>
+        <v>-4.783839574904676</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.215130557006184</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.15621149960881</v>
+        <v>-24.12291736284512</v>
       </c>
       <c r="F48" t="n">
-        <v>6.673117785106216</v>
+        <v>6.655717809666866</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.733658808422661</v>
+        <v>-4.806245893375747</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.141321519769313</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.37009830746382</v>
+        <v>-23.34747198368374</v>
       </c>
       <c r="F49" t="n">
-        <v>6.916101426391889</v>
+        <v>6.865524650353654</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.899049021723527</v>
+        <v>-4.968272469952176</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.06316339810857</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.26295083296851</v>
+        <v>-23.20372051477584</v>
       </c>
       <c r="F50" t="n">
-        <v>6.677410333135367</v>
+        <v>6.650775023724415</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.939505553547249</v>
+        <v>-5.027722793453862</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.989598943313305</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.64554260078016</v>
+        <v>-22.61582721704305</v>
       </c>
       <c r="F51" t="n">
-        <v>6.793617137355069</v>
+        <v>6.758895410586239</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.762777733322006</v>
+        <v>-4.84606685430677</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.927948408721381</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.13888015214116</v>
+        <v>-22.08293035755619</v>
       </c>
       <c r="F52" t="n">
-        <v>6.644810435346779</v>
+        <v>6.633345714243863</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.921313558995458</v>
+        <v>-5.00885122694757</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.884262925283815</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.72790534590142</v>
+        <v>-21.64238683778535</v>
       </c>
       <c r="F53" t="n">
-        <v>7.046290790250968</v>
+        <v>7.014429132499282</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.924427856369682</v>
+        <v>-5.025845414816966</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.862961808381727</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.01676018505371</v>
+        <v>-20.96509316048415</v>
       </c>
       <c r="F54" t="n">
-        <v>6.999674109774933</v>
+        <v>6.993098395538933</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.956695301691321</v>
+        <v>-5.065113917972027</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.866686904482386</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.73962683080264</v>
+        <v>-20.68795980623308</v>
       </c>
       <c r="F55" t="n">
-        <v>6.909364374929281</v>
+        <v>6.918418815646807</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.19440859357446</v>
+        <v>-5.302069413790794</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.896285559368482</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.20938959105137</v>
+        <v>-20.14676630209306</v>
       </c>
       <c r="F56" t="n">
-        <v>6.765432012767304</v>
+        <v>6.783897791703642</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.255790074788577</v>
+        <v>-5.38877595057553</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.949690568679574</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.9684006645674</v>
+        <v>-19.87697623615609</v>
       </c>
       <c r="F57" t="n">
-        <v>6.765241341499495</v>
+        <v>6.785129821434104</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.486521864865761</v>
+        <v>-5.604156259090601</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.025037969706959</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.51380613906105</v>
+        <v>-19.45099217883493</v>
       </c>
       <c r="F58" t="n">
-        <v>6.411766145021544</v>
+        <v>6.442757559550918</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.781211642775927</v>
+        <v>-5.911415673655605</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.118691299616795</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.93450282639343</v>
+        <v>-18.86739631813816</v>
       </c>
       <c r="F59" t="n">
-        <v>6.673117785106216</v>
+        <v>6.669392361873627</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.662579891150235</v>
+        <v>-5.787459793551844</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.228169432298997</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.44113847643244</v>
+        <v>-18.34547527906752</v>
       </c>
       <c r="F60" t="n">
-        <v>6.527576939685025</v>
+        <v>6.535003341115869</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.941399952770395</v>
+        <v>-6.077216563533292</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.348747044980019</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.16300287577365</v>
+        <v>-18.07789993324126</v>
       </c>
       <c r="F61" t="n">
-        <v>6.236045460210887</v>
+        <v>6.238739302994557</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.991033150483315</v>
+        <v>-6.132027219518275</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.475261599802699</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.84156534129459</v>
+        <v>-17.7688462531561</v>
       </c>
       <c r="F62" t="n">
-        <v>6.330647743085691</v>
+        <v>6.330119730344064</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.040402341825422</v>
+        <v>-6.19369715213754</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.602643483750157</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.27043644810846</v>
+        <v>-17.21219859830977</v>
       </c>
       <c r="F63" t="n">
-        <v>6.166621562700694</v>
+        <v>6.169134512230289</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.900327406081442</v>
+        <v>-6.045785138385896</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.726309790917464</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.30573996669445</v>
+        <v>-17.23041014888902</v>
       </c>
       <c r="F64" t="n">
-        <v>5.997075693562951</v>
+        <v>6.007635948395487</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.107601741211168</v>
+        <v>-6.293912014895563</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.842676875451847</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.97749693465665</v>
+        <v>-16.883329773393</v>
       </c>
       <c r="F65" t="n">
-        <v>6.107586804782697</v>
+        <v>6.104320948195597</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.022533021726848</v>
+        <v>-6.199515070309169</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.948229350990124</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.91763104557127</v>
+        <v>-16.80680214890518</v>
       </c>
       <c r="F66" t="n">
-        <v>6.08856367906353</v>
+        <v>6.096063415597378</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.129308931700271</v>
+        <v>-6.300976629818255</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.041732989651473</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.75544313176824</v>
+        <v>-16.64607604815535</v>
       </c>
       <c r="F67" t="n">
-        <v>5.900713368216057</v>
+        <v>5.882917383220487</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.090715111492844</v>
+        <v>-6.246332200066747</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.123172969873391</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.45926220676366</v>
+        <v>-16.36857112938239</v>
       </c>
       <c r="F68" t="n">
-        <v>5.789537352062411</v>
+        <v>5.761670012920996</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.251886111867562</v>
+        <v>-6.393070852170332</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.195192523574536</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.33825928680752</v>
+        <v>-16.27446263620115</v>
       </c>
       <c r="F69" t="n">
-        <v>5.939253409347948</v>
+        <v>5.907474864713</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.884423466743367</v>
+        <v>-6.012075436038517</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.260258778892251</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.11245072664532</v>
+        <v>-16.0339283873558</v>
       </c>
       <c r="F70" t="n">
-        <v>5.871765558557054</v>
+        <v>5.854111354760624</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.782722345897803</v>
+        <v>-5.908374711384385</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.321135302049798</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.19263043926272</v>
+        <v>-16.11102802564704</v>
       </c>
       <c r="F71" t="n">
-        <v>5.720636578286979</v>
+        <v>5.676904411862425</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.499467955049352</v>
+        <v>-5.637924629520383</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.380650344048749</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.1231674296976</v>
+        <v>-16.03955074525275</v>
       </c>
       <c r="F72" t="n">
-        <v>5.663865430548363</v>
+        <v>5.628982366552925</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.477511425210037</v>
+        <v>-5.625271879748807</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.441323578918912</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.08713056008157</v>
+        <v>-15.9900691067527</v>
       </c>
       <c r="F73" t="n">
-        <v>5.734208461349535</v>
+        <v>5.69944762252577</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.557568912655769</v>
+        <v>-5.684443529859079</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.504799287506189</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.23232917502207</v>
+        <v>-16.14172121075754</v>
       </c>
       <c r="F74" t="n">
-        <v>5.65513855329092</v>
+        <v>5.609392116037196</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.196872653035385</v>
+        <v>-5.317323115215569</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.570854358938406</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.51153057917785</v>
+        <v>-16.41404378225157</v>
       </c>
       <c r="F75" t="n">
-        <v>5.46262412989241</v>
+        <v>5.430263793440299</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.198847811809618</v>
+        <v>-5.32278902489278</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.637639087476894</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.56359361330363</v>
+        <v>-16.4638676512323</v>
       </c>
       <c r="F76" t="n">
-        <v>5.371106810350629</v>
+        <v>5.345820866834945</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.990683677430114</v>
+        <v>-5.122745530919221</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.702910523862153</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.73166300236756</v>
+        <v>-16.63435709869535</v>
       </c>
       <c r="F77" t="n">
-        <v>5.352861036723302</v>
+        <v>5.331339628495143</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.738132249705888</v>
+        <v>-4.856025761294675</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.763940218243968</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.15482610272652</v>
+        <v>-17.02656300757301</v>
       </c>
       <c r="F78" t="n">
-        <v>5.223233908653919</v>
+        <v>5.194486548276459</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.300287461725587</v>
+        <v>-4.412710174630296</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.816535600215738</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.31293169579568</v>
+        <v>-17.1722358561796</v>
       </c>
       <c r="F79" t="n">
-        <v>5.352132574700132</v>
+        <v>5.317024616388816</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.088383237092891</v>
+        <v>-4.197481425328099</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.855631852803016</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.69096437376615</v>
+        <v>-17.56972678148039</v>
       </c>
       <c r="F80" t="n">
-        <v>5.070295995843086</v>
+        <v>5.073811191780398</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.689210493429887</v>
+        <v>-3.78877511827461</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.876471888809505</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.53626388304201</v>
+        <v>-18.43138001872608</v>
       </c>
       <c r="F81" t="n">
-        <v>5.088473323374275</v>
+        <v>5.073547185409584</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.502523766216739</v>
+        <v>-3.583891507502805</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.87511069023619</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.30149123785154</v>
+        <v>-19.1834119440018</v>
       </c>
       <c r="F82" t="n">
-        <v>4.89986521646243</v>
+        <v>4.894893096478778</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.369909454951672</v>
+        <v>-3.442956106550248</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.848630348853898</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.99223946205048</v>
+        <v>-19.86973561698619</v>
       </c>
       <c r="F83" t="n">
-        <v>4.609663546856093</v>
+        <v>4.631194733097987</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.245274002893409</v>
+        <v>-3.327619545552857</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.795076565157522</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.15143765721661</v>
+        <v>-21.01798243677044</v>
       </c>
       <c r="F84" t="n">
-        <v>4.457693657404909</v>
+        <v>4.457654545349974</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.842546951238157</v>
+        <v>-2.907761413835936</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.71288560057227</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.1054637902058</v>
+        <v>-21.95486282267735</v>
       </c>
       <c r="F85" t="n">
-        <v>4.55169948144195</v>
+        <v>4.563022421345725</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.899381656066043</v>
+        <v>-2.94802238538498</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.603285351573774</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.94668097874779</v>
+        <v>-22.81056124955914</v>
       </c>
       <c r="F86" t="n">
-        <v>4.211082373023985</v>
+        <v>4.231748205050435</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.759629394775279</v>
+        <v>-2.786606934666916</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.469646913852507</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.70264855455137</v>
+        <v>-23.57568104621759</v>
       </c>
       <c r="F87" t="n">
-        <v>4.003998709162069</v>
+        <v>4.045902387018397</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.713824289439153</v>
+        <v>-2.750521174982217</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.31725363806454</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.9764890717398</v>
+        <v>-24.83791017209709</v>
       </c>
       <c r="F88" t="n">
-        <v>4.110652393963818</v>
+        <v>4.148732868450219</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.658138501224992</v>
+        <v>-2.702780022926793</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.151767878937646</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.37377212331096</v>
+        <v>-26.22163111861943</v>
       </c>
       <c r="F89" t="n">
-        <v>3.593698585869966</v>
+        <v>3.64242242830564</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.687228092083136</v>
+        <v>-2.71527143547176</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.979628699366796</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.73875839551928</v>
+        <v>-27.57657781522654</v>
       </c>
       <c r="F90" t="n">
-        <v>3.729006739918704</v>
+        <v>3.7735749265175</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.729713561756627</v>
+        <v>-2.764513512635328</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.807573924594545</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.49261627392201</v>
+        <v>-29.3033603736003</v>
       </c>
       <c r="F91" t="n">
-        <v>3.308928602892771</v>
+        <v>3.351438517600596</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.063764733952325</v>
+        <v>-3.078231305271526</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.642380006852194</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.14996026776498</v>
+        <v>-30.98043151015127</v>
       </c>
       <c r="F92" t="n">
-        <v>3.007364881327723</v>
+        <v>3.072251780465418</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.20026580567659</v>
+        <v>-3.241162348118333</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.49046769816322</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.79168144016472</v>
+        <v>-32.60963926947514</v>
       </c>
       <c r="F93" t="n">
-        <v>2.706470953703442</v>
+        <v>2.770859174140712</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.610761489243369</v>
+        <v>-3.662364956723657</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.356134966570949</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.69853101045382</v>
+        <v>-34.54665890113997</v>
       </c>
       <c r="F94" t="n">
-        <v>2.232872858505391</v>
+        <v>2.260427301207324</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.593821080449509</v>
+        <v>-3.626836543821786</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.24460663318273</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.92019595542074</v>
+        <v>-36.75988786475803</v>
       </c>
       <c r="F95" t="n">
-        <v>1.725584616987429</v>
+        <v>1.780346382903744</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.796680642378411</v>
+        <v>-3.824044413812534</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.160696758100618</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.80240248659716</v>
+        <v>-38.63871120318255</v>
       </c>
       <c r="F96" t="n">
-        <v>1.546578519562205</v>
+        <v>1.600220702905996</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.105348090921087</v>
+        <v>-4.131445609576678</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.107441758778189</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.85981635686321</v>
+        <v>-40.68417634066586</v>
       </c>
       <c r="F97" t="n">
-        <v>1.087769670136572</v>
+        <v>1.146095522058867</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.550800173586309</v>
+        <v>-4.54479158414687</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.089697890810524</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.75939108493434</v>
+        <v>-42.55979004608224</v>
       </c>
       <c r="F98" t="n">
-        <v>0.689648062949954</v>
+        <v>0.7446982802714163</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.832441192168678</v>
+        <v>-4.835491932453633</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.104637892754194</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.23731576933405</v>
+        <v>-45.04499446170679</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5364754778095087</v>
+        <v>0.5770151227499675</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.070203374120485</v>
+        <v>-5.080357841383067</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.158729213181226</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.84054081072592</v>
+        <v>-47.65273572319197</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3307365602438648</v>
+        <v>-0.2687097301233149</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.400490011028658</v>
+        <v>-5.386047884743792</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.240938191347655</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.70452723556106</v>
+        <v>-49.49828325862854</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.4052352468819148</v>
+        <v>-0.3288494035932357</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.798738732393816</v>
+        <v>-5.783749037339855</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.366152869132292</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.99318013036674</v>
+        <v>-51.78735660802477</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7959500086651567</v>
+        <v>-0.7425620536784455</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.092616935164074</v>
+        <v>-6.062437095774608</v>
       </c>
     </row>
   </sheetData>
